--- a/MyProgram/Develop/GameSceneItem.xlsx
+++ b/MyProgram/Develop/GameSceneItem.xlsx
@@ -74,9 +74,6 @@
     <t>GameScene_19</t>
   </si>
   <si>
-    <t>GameScene_20</t>
-  </si>
-  <si>
     <t>itemid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +83,10 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameScene_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +439,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -450,13 +451,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
